--- a/biology/Virologie/Particule_sub-virale/Particule_sub-virale.xlsx
+++ b/biology/Virologie/Particule_sub-virale/Particule_sub-virale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les particules sub-virales sont des entités ressortissantes du règne des virus cependant incapable d'effectuer le cycle viral.
 Sont compris dans cette catégorie :
-des éléments non-nucléotidiques (ex : capside vide)[1] parfois appelés VLP (virus-like particules) ou encore particule pseudo-virale
-des séquences nucléotidiques qui nécessitent la coinfection d'un virus assistant pour se propager horizontalement[2]
+des éléments non-nucléotidiques (ex : capside vide) parfois appelés VLP (virus-like particules) ou encore particule pseudo-virale
+des séquences nucléotidiques qui nécessitent la coinfection d'un virus assistant pour se propager horizontalement
 Parmi ces séquences nucléotidiques figurent :
 les virusoïdes
 les virus satellites</t>
